--- a/results/ROI_greedy/dataset_03/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/ROI_greedy/dataset_03/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,67 +579,67 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>166</v>
+        <v>622</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="I2">
-        <v>160</v>
+        <v>571</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
-        <v>226</v>
+        <v>571</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N2">
-        <v>0.7079646017699115</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>241</v>
+        <v>622</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="Q2">
-        <v>2.776746732388445</v>
+        <v>2.501114460014854</v>
       </c>
       <c r="R2">
-        <v>184.3487990141733</v>
+        <v>443.4431625392425</v>
       </c>
       <c r="S2">
-        <v>16.06666666666667</v>
+        <v>12.19607843137255</v>
       </c>
       <c r="T2">
-        <v>27.66666666666667</v>
+        <v>12.19607843137255</v>
       </c>
       <c r="U2">
-        <v>3.320228319128488</v>
+        <v>2.501114460014854</v>
       </c>
       <c r="V2">
-        <v>140.0786300852291</v>
+        <v>443.4431625392425</v>
       </c>
       <c r="W2">
-        <v>1309</v>
+        <v>898</v>
       </c>
       <c r="X2">
         <v>1469</v>
       </c>
       <c r="Y2">
-        <v>1243</v>
+        <v>898</v>
       </c>
       <c r="Z2">
-        <v>1.053097345132743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -659,67 +659,67 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N3">
-        <v>0.9550561797752809</v>
+        <v>0.8305647840531561</v>
       </c>
       <c r="O3">
-        <v>119</v>
+        <v>362</v>
       </c>
       <c r="P3">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="Q3">
-        <v>1.377926111449374</v>
+        <v>1.78077034765246</v>
       </c>
       <c r="R3">
-        <v>47.66221665651878</v>
+        <v>192.3730087931999</v>
       </c>
       <c r="S3">
-        <v>3.966666666666667</v>
+        <v>5.934426229508197</v>
       </c>
       <c r="T3">
-        <v>9.5</v>
+        <v>7.25</v>
       </c>
       <c r="U3">
-        <v>2.251291798606495</v>
+        <v>1.981001468866583</v>
       </c>
       <c r="V3">
-        <v>62.48708201393505</v>
+        <v>170.7599412453367</v>
       </c>
       <c r="W3">
-        <v>777</v>
+        <v>612</v>
       </c>
       <c r="X3">
         <v>862</v>
       </c>
       <c r="Y3">
-        <v>773</v>
+        <v>561</v>
       </c>
       <c r="Z3">
-        <v>1.005174644243208</v>
+        <v>1.090909090909091</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -739,64 +739,64 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>241</v>
+        <v>790</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="I4">
-        <v>237</v>
+        <v>743</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
-        <v>237</v>
+        <v>743</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>241</v>
+        <v>790</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="Q4">
-        <v>4.098502572370764</v>
+        <v>2.821885343751009</v>
       </c>
       <c r="R4">
-        <v>220.605989710517</v>
+        <v>610.3713888437026</v>
       </c>
       <c r="S4">
-        <v>60.25</v>
+        <v>16.80851063829787</v>
       </c>
       <c r="T4">
-        <v>60.25</v>
+        <v>16.80851063829787</v>
       </c>
       <c r="U4">
-        <v>4.098502572370764</v>
+        <v>2.821885343751009</v>
       </c>
       <c r="V4">
-        <v>220.605989710517</v>
+        <v>610.3713888437026</v>
       </c>
       <c r="W4">
-        <v>1182</v>
+        <v>676</v>
       </c>
       <c r="X4">
         <v>1419</v>
       </c>
       <c r="Y4">
-        <v>1182</v>
+        <v>676</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -819,64 +819,64 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>305</v>
+        <v>646</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="I5">
-        <v>290</v>
+        <v>591</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K5">
-        <v>290</v>
+        <v>591</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>305</v>
+        <v>646</v>
       </c>
       <c r="P5">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="Q5">
-        <v>3.012261575505201</v>
+        <v>2.463466318550131</v>
       </c>
       <c r="R5">
-        <v>244.816076367422</v>
+        <v>455.5093524797428</v>
       </c>
       <c r="S5">
-        <v>20.33333333333333</v>
+        <v>11.74545454545455</v>
       </c>
       <c r="T5">
-        <v>20.33333333333333</v>
+        <v>11.74545454545455</v>
       </c>
       <c r="U5">
-        <v>3.012261575505201</v>
+        <v>2.463466318550131</v>
       </c>
       <c r="V5">
-        <v>244.816076367422</v>
+        <v>455.5093524797428</v>
       </c>
       <c r="W5">
-        <v>1030</v>
+        <v>729</v>
       </c>
       <c r="X5">
         <v>1320</v>
       </c>
       <c r="Y5">
-        <v>1030</v>
+        <v>729</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -899,64 +899,64 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>189</v>
+        <v>677</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I6">
-        <v>179</v>
+        <v>607</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K6">
-        <v>179</v>
+        <v>607</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>189</v>
+        <v>677</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="Q6">
-        <v>2.939161922065597</v>
+        <v>2.269176030862916</v>
       </c>
       <c r="R6">
-        <v>149.608380779344</v>
+        <v>448.1576778395959</v>
       </c>
       <c r="S6">
-        <v>18.9</v>
+        <v>9.671428571428571</v>
       </c>
       <c r="T6">
-        <v>18.9</v>
+        <v>9.671428571428571</v>
       </c>
       <c r="U6">
-        <v>2.939161922065597</v>
+        <v>2.269176030862916</v>
       </c>
       <c r="V6">
-        <v>149.608380779344</v>
+        <v>448.1576778395959</v>
       </c>
       <c r="W6">
-        <v>1403</v>
+        <v>975</v>
       </c>
       <c r="X6">
         <v>1582</v>
       </c>
       <c r="Y6">
-        <v>1403</v>
+        <v>975</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -979,67 +979,67 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>163</v>
+        <v>678</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="I7">
-        <v>159</v>
+        <v>614</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K7">
-        <v>188</v>
+        <v>614</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
-        <v>0.8457446808510638</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>203</v>
+        <v>678</v>
       </c>
       <c r="P7">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="Q7">
-        <v>2.605155777939577</v>
+        <v>2.360264204580724</v>
       </c>
       <c r="R7">
-        <v>148.9226633309063</v>
+        <v>462.9430909068337</v>
       </c>
       <c r="S7">
-        <v>13.53333333333333</v>
+        <v>10.59375</v>
       </c>
       <c r="T7">
-        <v>40.75</v>
+        <v>10.59375</v>
       </c>
       <c r="U7">
-        <v>3.707455839686872</v>
+        <v>2.360264204580724</v>
       </c>
       <c r="V7">
-        <v>144.1701766412525</v>
+        <v>462.9430909068337</v>
       </c>
       <c r="W7">
-        <v>1312</v>
+        <v>857</v>
       </c>
       <c r="X7">
         <v>1471</v>
       </c>
       <c r="Y7">
-        <v>1283</v>
+        <v>857</v>
       </c>
       <c r="Z7">
-        <v>1.022603273577553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1059,64 +1059,64 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I8">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K8">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="P8">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="Q8">
-        <v>1.496642418288756</v>
+        <v>1.057112557761357</v>
       </c>
       <c r="R8">
-        <v>29.55036372566866</v>
+        <v>67.31677026356873</v>
       </c>
       <c r="S8">
-        <v>4.466666666666667</v>
+        <v>2.878048780487805</v>
       </c>
       <c r="T8">
-        <v>4.466666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="U8">
-        <v>1.496642418288756</v>
+        <v>1.321755839982319</v>
       </c>
       <c r="V8">
-        <v>29.55036372566866</v>
+        <v>79.98167296099011</v>
       </c>
       <c r="W8">
-        <v>586</v>
+        <v>484</v>
       </c>
       <c r="X8">
         <v>638</v>
       </c>
       <c r="Y8">
-        <v>586</v>
+        <v>484</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1139,67 +1139,67 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>133</v>
+        <v>449</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="I9">
-        <v>130</v>
+        <v>411</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K9">
-        <v>130</v>
+        <v>455</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.9032967032967033</v>
       </c>
       <c r="O9">
-        <v>133</v>
+        <v>518</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="Q9">
-        <v>3.791736839553644</v>
+        <v>2.10684051586795</v>
       </c>
       <c r="R9">
-        <v>118.6247894813391</v>
+        <v>322.2690475003192</v>
       </c>
       <c r="S9">
-        <v>44.33333333333334</v>
+        <v>8.222222222222221</v>
       </c>
       <c r="T9">
-        <v>44.33333333333334</v>
+        <v>11.81578947368421</v>
       </c>
       <c r="U9">
-        <v>3.791736839553644</v>
+        <v>2.469436728015868</v>
       </c>
       <c r="V9">
-        <v>118.6247894813391</v>
+        <v>317.161404335397</v>
       </c>
       <c r="W9">
-        <v>1061</v>
+        <v>780</v>
       </c>
       <c r="X9">
         <v>1191</v>
       </c>
       <c r="Y9">
-        <v>1061</v>
+        <v>736</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>1.059782608695652</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,64 +1219,64 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>186</v>
+        <v>588</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I10">
-        <v>181</v>
+        <v>538</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K10">
-        <v>181</v>
+        <v>538</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>186</v>
+        <v>588</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="Q10">
-        <v>3.616308761279101</v>
+        <v>2.464703942470481</v>
       </c>
       <c r="R10">
-        <v>162.9184561936045</v>
+        <v>414.764802876476</v>
       </c>
       <c r="S10">
-        <v>37.2</v>
+        <v>11.76</v>
       </c>
       <c r="T10">
-        <v>37.2</v>
+        <v>11.76</v>
       </c>
       <c r="U10">
-        <v>3.616308761279101</v>
+        <v>2.464703942470481</v>
       </c>
       <c r="V10">
-        <v>162.9184561936045</v>
+        <v>414.764802876476</v>
       </c>
       <c r="W10">
-        <v>1539</v>
+        <v>1182</v>
       </c>
       <c r="X10">
         <v>1720</v>
       </c>
       <c r="Y10">
-        <v>1539</v>
+        <v>1182</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1299,64 +1299,64 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>137</v>
+        <v>449</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I11">
-        <v>135</v>
+        <v>424</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K11">
-        <v>135</v>
+        <v>424</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>137</v>
+        <v>449</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="Q11">
-        <v>4.22683374526818</v>
+        <v>2.888147062874054</v>
       </c>
       <c r="R11">
-        <v>126.5463325094636</v>
+        <v>351.7963234281486</v>
       </c>
       <c r="S11">
-        <v>68.5</v>
+        <v>17.96</v>
       </c>
       <c r="T11">
-        <v>68.5</v>
+        <v>17.96</v>
       </c>
       <c r="U11">
-        <v>4.22683374526818</v>
+        <v>2.888147062874054</v>
       </c>
       <c r="V11">
-        <v>126.5463325094636</v>
+        <v>351.7963234281486</v>
       </c>
       <c r="W11">
-        <v>977</v>
+        <v>688</v>
       </c>
       <c r="X11">
         <v>1112</v>
       </c>
       <c r="Y11">
-        <v>977</v>
+        <v>688</v>
       </c>
       <c r="Z11">
         <v>1</v>
